--- a/medicine/Enfance/Collection_Farandole/Collection_Farandole.xlsx
+++ b/medicine/Enfance/Collection_Farandole/Collection_Farandole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Collection Farandole est une collection de 182 albums illustrés pour la jeunesse parus de 1953 à 1998 aux Éditions Casterman, et destinée à des enfants de cinq à huit ans. La série phare de la collection est Martine.
 </t>
@@ -511,7 +523,9 @@
           <t>Aspect des livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1954 à 1969
 Les livres se présentent sous la forme d’albums cartonnés rigides de taille in 4°, et contiennent environ 20 pages épaisses.
@@ -549,7 +563,9 @@
           <t>Liste des titres parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : liste exhaustive. La première date est celle de la 1re édition.
 </t>
@@ -580,7 +596,9 @@
           <t>Thèmes avec enfants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">série Martine
 Texte de Gilbert Delahaye, aquarelles de Marcel Marlier.
@@ -742,7 +760,9 @@
           <t>Thème animalier</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>série Plouf et Nathalie
 1970 : Plouf et Nathalie : Les Aventures de la vache Dondon. Jean Bodar, Philippe Salembier.
@@ -773,7 +793,7 @@
 1961 : L'Aventure de Fifi. L. Bienvenu Brialmont, Philippe Salembier
 1962 : Le Voyage des éléphants. Texte de Marcelle Vérité, illustrations de Romain Simon.
 1962 : Poulette des champs. Marcelle Vérité, Romain Simon.
-1963 : Cotcodac et Pousemin[1]. Illustré par Marcel Marlier.
+1963 : Cotcodac et Pousemin. Illustré par Marcel Marlier.
 1963 : Petite ombrelle, petit parapluie. Marcelle Vérité, illustrations d'Élisabeth Ivanovsky.
 1963 : Mamou, Marmot. Texte de Marcelle Vérité, Simon Romain.
 1964 : Missi Souris. M. Vérité, Élisabeth Ivanovsky.
